--- a/HKEX_stock_sector_quarterly_ADT_2000_23_added.xlsx
+++ b/HKEX_stock_sector_quarterly_ADT_2000_23_added.xlsx
@@ -471,7 +471,7 @@
         <v>36616</v>
       </c>
       <c r="B2" t="n">
-        <v>3223586182.191301</v>
+        <v>3238933481.016697</v>
       </c>
       <c r="C2" t="n">
         <v>1627309659.848845</v>
@@ -480,7 +480,7 @@
         <v>6504495989.354596</v>
       </c>
       <c r="E2" t="n">
-        <v>15347298.82539682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>36707</v>
       </c>
       <c r="B3" t="n">
-        <v>2688499854.666624</v>
+        <v>2702828092.454759</v>
       </c>
       <c r="C3" t="n">
         <v>1338901821.37216</v>
@@ -497,7 +497,7 @@
         <v>3915691991.222486</v>
       </c>
       <c r="E3" t="n">
-        <v>14328237.78813559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         <v>36799</v>
       </c>
       <c r="B4" t="n">
-        <v>3488826787.770482</v>
+        <v>3499179890.215794</v>
       </c>
       <c r="C4" t="n">
         <v>1432500090.006258</v>
@@ -514,7 +514,7 @@
         <v>3242830687.041168</v>
       </c>
       <c r="E4" t="n">
-        <v>10353102.4453125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>36891</v>
       </c>
       <c r="B5" t="n">
-        <v>2670226367.585331</v>
+        <v>2687322508.085331</v>
       </c>
       <c r="C5" t="n">
         <v>867125258.4546354</v>
@@ -531,7 +531,7 @@
         <v>2525008134.856465</v>
       </c>
       <c r="E5" t="n">
-        <v>17096140.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -539,7 +539,7 @@
         <v>36981</v>
       </c>
       <c r="B6" t="n">
-        <v>3355998895.573011</v>
+        <v>3364764327.294323</v>
       </c>
       <c r="C6" t="n">
         <v>1236576296.666986</v>
@@ -548,7 +548,7 @@
         <v>2166834825.42057</v>
       </c>
       <c r="E6" t="n">
-        <v>8765431.721311476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>37072</v>
       </c>
       <c r="B7" t="n">
-        <v>2770968837.825939</v>
+        <v>2775012175.953057</v>
       </c>
       <c r="C7" t="n">
         <v>2319556627.050072</v>
@@ -565,7 +565,7 @@
         <v>2680247898.383228</v>
       </c>
       <c r="E7" t="n">
-        <v>4043338.127118644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         <v>37164</v>
       </c>
       <c r="B8" t="n">
-        <v>2275135741.753089</v>
+        <v>2282180787.809541</v>
       </c>
       <c r="C8" t="n">
         <v>899077838.8517587</v>
@@ -582,7 +582,7 @@
         <v>1666371431.508701</v>
       </c>
       <c r="E8" t="n">
-        <v>7045046.056451613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -590,7 +590,7 @@
         <v>37256</v>
       </c>
       <c r="B9" t="n">
-        <v>2384158261.344689</v>
+        <v>2386596730.828296</v>
       </c>
       <c r="C9" t="n">
         <v>999153422.1286671</v>
@@ -599,7 +599,7 @@
         <v>1878690789.787988</v>
       </c>
       <c r="E9" t="n">
-        <v>2438469.483606557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -607,7 +607,7 @@
         <v>37346</v>
       </c>
       <c r="B10" t="n">
-        <v>2442004330.880199</v>
+        <v>2444270087.592063</v>
       </c>
       <c r="C10" t="n">
         <v>861331392.7784566</v>
@@ -616,7 +616,7 @@
         <v>1964690854.78674</v>
       </c>
       <c r="E10" t="n">
-        <v>2265756.711864407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -624,7 +624,7 @@
         <v>37437</v>
       </c>
       <c r="B11" t="n">
-        <v>2986623532.064654</v>
+        <v>2989399481.031868</v>
       </c>
       <c r="C11" t="n">
         <v>956006579.0230169</v>
@@ -633,7 +633,7 @@
         <v>1879065976.27241</v>
       </c>
       <c r="E11" t="n">
-        <v>2775948.967213115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -641,7 +641,7 @@
         <v>37529</v>
       </c>
       <c r="B12" t="n">
-        <v>2493668448.061785</v>
+        <v>2497200949.084862</v>
       </c>
       <c r="C12" t="n">
         <v>635572373.3034894</v>
@@ -650,7 +650,7 @@
         <v>1323588001.673</v>
       </c>
       <c r="E12" t="n">
-        <v>3532501.023076923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +658,7 @@
         <v>37621</v>
       </c>
       <c r="B13" t="n">
-        <v>2213877101.574284</v>
+        <v>2218356922.8888</v>
       </c>
       <c r="C13" t="n">
         <v>698754543.648602</v>
@@ -667,7 +667,7 @@
         <v>1341788433.135778</v>
       </c>
       <c r="E13" t="n">
-        <v>4479821.314516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -675,7 +675,7 @@
         <v>37711</v>
       </c>
       <c r="B14" t="n">
-        <v>2285478197.007943</v>
+        <v>2288472152.56532</v>
       </c>
       <c r="C14" t="n">
         <v>987143633.9664059</v>
@@ -684,7 +684,7 @@
         <v>1622770558.164718</v>
       </c>
       <c r="E14" t="n">
-        <v>2993955.557377049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>37802</v>
       </c>
       <c r="B15" t="n">
-        <v>3086497349.703455</v>
+        <v>3090047307.620122</v>
       </c>
       <c r="C15" t="n">
         <v>1443908696.219031</v>
@@ -701,7 +701,7 @@
         <v>2304495500.926436</v>
       </c>
       <c r="E15" t="n">
-        <v>3549957.916666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -709,7 +709,7 @@
         <v>37894</v>
       </c>
       <c r="B16" t="n">
-        <v>3809000174.035328</v>
+        <v>3812947074.629078</v>
       </c>
       <c r="C16" t="n">
         <v>2451947038.167587</v>
@@ -718,7 +718,7 @@
         <v>3746837914.201563</v>
       </c>
       <c r="E16" t="n">
-        <v>3946900.59375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -726,7 +726,7 @@
         <v>37986</v>
       </c>
       <c r="B17" t="n">
-        <v>3831729023.430594</v>
+        <v>3842798984.287737</v>
       </c>
       <c r="C17" t="n">
         <v>4395045270.569483</v>
@@ -735,7 +735,7 @@
         <v>3902744287.084972</v>
       </c>
       <c r="E17" t="n">
-        <v>11069960.85714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -743,7 +743,7 @@
         <v>38077</v>
       </c>
       <c r="B18" t="n">
-        <v>5564048111.439131</v>
+        <v>5576597675.552034</v>
       </c>
       <c r="C18" t="n">
         <v>5879537665.312479</v>
@@ -752,7 +752,7 @@
         <v>5006229842.591398</v>
       </c>
       <c r="E18" t="n">
-        <v>12549564.11290323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -760,7 +760,7 @@
         <v>38168</v>
       </c>
       <c r="B19" t="n">
-        <v>4227204818.808969</v>
+        <v>4238583142.242302</v>
       </c>
       <c r="C19" t="n">
         <v>3838946577.346761</v>
@@ -769,7 +769,7 @@
         <v>3578293233.440193</v>
       </c>
       <c r="E19" t="n">
-        <v>11378323.43333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>38260</v>
       </c>
       <c r="B20" t="n">
-        <v>4020973205.709542</v>
+        <v>4025499636.365792</v>
       </c>
       <c r="C20" t="n">
         <v>3208831711.96788</v>
@@ -786,7 +786,7 @@
         <v>2942049716.276896</v>
       </c>
       <c r="E20" t="n">
-        <v>4526430.65625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -794,7 +794,7 @@
         <v>38352</v>
       </c>
       <c r="B21" t="n">
-        <v>5953991168.164402</v>
+        <v>5964504997.958053</v>
       </c>
       <c r="C21" t="n">
         <v>3497724260.4344</v>
@@ -803,7 +803,7 @@
         <v>4621721371.051842</v>
       </c>
       <c r="E21" t="n">
-        <v>10513829.79365079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>38442</v>
       </c>
       <c r="B22" t="n">
-        <v>6160579214.694223</v>
+        <v>6169019601.168799</v>
       </c>
       <c r="C22" t="n">
         <v>3832510861.583059</v>
@@ -820,7 +820,7 @@
         <v>3945650740.292413</v>
       </c>
       <c r="E22" t="n">
-        <v>8440386.474576272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>38533</v>
       </c>
       <c r="B23" t="n">
-        <v>4750006855.271627</v>
+        <v>4756262974.449046</v>
       </c>
       <c r="C23" t="n">
         <v>3541315002.298219</v>
@@ -837,7 +837,7 @@
         <v>3253551531.759985</v>
       </c>
       <c r="E23" t="n">
-        <v>6256119.177419355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -845,7 +845,7 @@
         <v>38625</v>
       </c>
       <c r="B24" t="n">
-        <v>5572158191.493764</v>
+        <v>5580109687.4741</v>
       </c>
       <c r="C24" t="n">
         <v>5541341259.414215</v>
@@ -854,7 +854,7 @@
         <v>3588049378.761254</v>
       </c>
       <c r="E24" t="n">
-        <v>7951495.980336189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -862,7 +862,7 @@
         <v>38717</v>
       </c>
       <c r="B25" t="n">
-        <v>5033734766.271545</v>
+        <v>5043574307.548139</v>
       </c>
       <c r="C25" t="n">
         <v>4610963389.726147</v>
@@ -871,7 +871,7 @@
         <v>3183898492.710504</v>
       </c>
       <c r="E25" t="n">
-        <v>9839541.276594101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>38807</v>
       </c>
       <c r="B26" t="n">
-        <v>7996037573.046233</v>
+        <v>8005322825.619836</v>
       </c>
       <c r="C26" t="n">
         <v>9459293820.267527</v>
@@ -888,7 +888,7 @@
         <v>5083629187.271581</v>
       </c>
       <c r="E26" t="n">
-        <v>9285252.573602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -896,7 +896,7 @@
         <v>38898</v>
       </c>
       <c r="B27" t="n">
-        <v>8149943816.056949</v>
+        <v>8199138504.187037</v>
       </c>
       <c r="C27" t="n">
         <v>11286504279.31309</v>
@@ -905,7 +905,7 @@
         <v>5218864195.549541</v>
       </c>
       <c r="E27" t="n">
-        <v>49194688.13008687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -913,7 +913,7 @@
         <v>38990</v>
       </c>
       <c r="B28" t="n">
-        <v>5944123749.052344</v>
+        <v>5974471452.015356</v>
       </c>
       <c r="C28" t="n">
         <v>8020868646.687697</v>
@@ -922,7 +922,7 @@
         <v>3924918867.902841</v>
       </c>
       <c r="E28" t="n">
-        <v>30347702.96301199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -930,7 +930,7 @@
         <v>39082</v>
       </c>
       <c r="B29" t="n">
-        <v>8884887297.473581</v>
+        <v>8910695584.305368</v>
       </c>
       <c r="C29" t="n">
         <v>16948822977.58631</v>
@@ -939,7 +939,7 @@
         <v>6340066805.914521</v>
       </c>
       <c r="E29" t="n">
-        <v>25808286.83178686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -947,7 +947,7 @@
         <v>39172</v>
       </c>
       <c r="B30" t="n">
-        <v>10654483694.62424</v>
+        <v>10679380557.94041</v>
       </c>
       <c r="C30" t="n">
         <v>18916022219.51551</v>
@@ -956,7 +956,7 @@
         <v>8378832127.407555</v>
       </c>
       <c r="E30" t="n">
-        <v>24896863.31617737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -964,7 +964,7 @@
         <v>39263</v>
       </c>
       <c r="B31" t="n">
-        <v>13476575159.79408</v>
+        <v>13493932286.09712</v>
       </c>
       <c r="C31" t="n">
         <v>24070697073.32323</v>
@@ -973,7 +973,7 @@
         <v>11725229538.60329</v>
       </c>
       <c r="E31" t="n">
-        <v>17357126.30304317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -981,7 +981,7 @@
         <v>39355</v>
       </c>
       <c r="B32" t="n">
-        <v>20542765575.48206</v>
+        <v>20571854371.46778</v>
       </c>
       <c r="C32" t="n">
         <v>39266652377.64075</v>
@@ -990,7 +990,7 @@
         <v>12975374544.03365</v>
       </c>
       <c r="E32" t="n">
-        <v>29088795.98572892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
         <v>39447</v>
       </c>
       <c r="B33" t="n">
-        <v>24118106127.18204</v>
+        <v>24134264930.61303</v>
       </c>
       <c r="C33" t="n">
         <v>53187273646.46414</v>
@@ -1007,7 +1007,7 @@
         <v>15416464578.36154</v>
       </c>
       <c r="E33" t="n">
-        <v>16158803.43098548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1015,7 +1015,7 @@
         <v>39538</v>
       </c>
       <c r="B34" t="n">
-        <v>20004052210.96219</v>
+        <v>20020722897.35247</v>
       </c>
       <c r="C34" t="n">
         <v>35906972037.32259</v>
@@ -1024,7 +1024,7 @@
         <v>12223097263.84533</v>
       </c>
       <c r="E34" t="n">
-        <v>16670686.39027456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1032,7 +1032,7 @@
         <v>39629</v>
       </c>
       <c r="B35" t="n">
-        <v>12599713962.13529</v>
+        <v>12611303024.50735</v>
       </c>
       <c r="C35" t="n">
         <v>29057424760.78563</v>
@@ -1041,7 +1041,7 @@
         <v>10880301998.30932</v>
       </c>
       <c r="E35" t="n">
-        <v>11589062.3720558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1049,7 +1049,7 @@
         <v>39721</v>
       </c>
       <c r="B36" t="n">
-        <v>10543117778.15574</v>
+        <v>10556549846.90677</v>
       </c>
       <c r="C36" t="n">
         <v>22546816157.50097</v>
@@ -1058,7 +1058,7 @@
         <v>7672078688.554435</v>
       </c>
       <c r="E36" t="n">
-        <v>13432068.75102353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1066,7 +1066,7 @@
         <v>39813</v>
       </c>
       <c r="B37" t="n">
-        <v>8855970314.577631</v>
+        <v>8868178227.003719</v>
       </c>
       <c r="C37" t="n">
         <v>20564611005.6784</v>
@@ -1075,7 +1075,7 @@
         <v>7027040725.465752</v>
       </c>
       <c r="E37" t="n">
-        <v>12207912.42608729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1083,7 +1083,7 @@
         <v>39903</v>
       </c>
       <c r="B38" t="n">
-        <v>7653196642.074284</v>
+        <v>7692864655.503501</v>
       </c>
       <c r="C38" t="n">
         <v>17108228405.22688</v>
@@ -1092,7 +1092,7 @@
         <v>5797871568.838166</v>
       </c>
       <c r="E38" t="n">
-        <v>39668013.42921721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1100,7 +1100,7 @@
         <v>39994</v>
       </c>
       <c r="B39" t="n">
-        <v>14534385850.90646</v>
+        <v>14593771082.80265</v>
       </c>
       <c r="C39" t="n">
         <v>28687075022.47206</v>
@@ -1109,7 +1109,7 @@
         <v>9808548854.818331</v>
       </c>
       <c r="E39" t="n">
-        <v>59385231.89619108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1117,7 +1117,7 @@
         <v>40086</v>
       </c>
       <c r="B40" t="n">
-        <v>13270562842.9684</v>
+        <v>13343064596.42219</v>
       </c>
       <c r="C40" t="n">
         <v>24099251205.84428</v>
@@ -1126,7 +1126,7 @@
         <v>9994332728.498589</v>
       </c>
       <c r="E40" t="n">
-        <v>72501753.45378231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1134,7 +1134,7 @@
         <v>40178</v>
       </c>
       <c r="B41" t="n">
-        <v>13334690226.19685</v>
+        <v>13408925289.15014</v>
       </c>
       <c r="C41" t="n">
         <v>22263889669.30196</v>
@@ -1143,7 +1143,7 @@
         <v>10958176098.60648</v>
       </c>
       <c r="E41" t="n">
-        <v>74235062.95329212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1151,7 +1151,7 @@
         <v>40268</v>
       </c>
       <c r="B42" t="n">
-        <v>12353664912.5218</v>
+        <v>12384799779.26144</v>
       </c>
       <c r="C42" t="n">
         <v>21878566316.3266</v>
@@ -1160,7 +1160,7 @@
         <v>10858775051.91008</v>
       </c>
       <c r="E42" t="n">
-        <v>31134866.73964604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1168,7 +1168,7 @@
         <v>40359</v>
       </c>
       <c r="B43" t="n">
-        <v>12155528026.39851</v>
+        <v>12195951873.70469</v>
       </c>
       <c r="C43" t="n">
         <v>19488770533.87622</v>
@@ -1177,7 +1177,7 @@
         <v>11296529820.03321</v>
       </c>
       <c r="E43" t="n">
-        <v>40423847.30618349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>40451</v>
       </c>
       <c r="B44" t="n">
-        <v>11473502614.65552</v>
+        <v>11626233147.34766</v>
       </c>
       <c r="C44" t="n">
         <v>16452728307.58464</v>
@@ -1194,7 +1194,7 @@
         <v>10612943068.86669</v>
       </c>
       <c r="E44" t="n">
-        <v>152730532.6921458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>40543</v>
       </c>
       <c r="B45" t="n">
-        <v>18965201081.34912</v>
+        <v>19106597771.43721</v>
       </c>
       <c r="C45" t="n">
         <v>24669255156.76632</v>
@@ -1211,7 +1211,7 @@
         <v>12452938772.11174</v>
       </c>
       <c r="E45" t="n">
-        <v>141396690.0880915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1219,7 +1219,7 @@
         <v>40633</v>
       </c>
       <c r="B46" t="n">
-        <v>16071488333.771</v>
+        <v>16124753163.90906</v>
       </c>
       <c r="C46" t="n">
         <v>22249249109.86045</v>
@@ -1228,7 +1228,7 @@
         <v>11425236983.74231</v>
       </c>
       <c r="E46" t="n">
-        <v>53264830.13806079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1236,7 +1236,7 @@
         <v>40724</v>
       </c>
       <c r="B47" t="n">
-        <v>15286570445.16116</v>
+        <v>15318394986.94524</v>
       </c>
       <c r="C47" t="n">
         <v>21433757146.58007</v>
@@ -1245,7 +1245,7 @@
         <v>12167615904.2952</v>
       </c>
       <c r="E47" t="n">
-        <v>31824541.78407727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1253,7 +1253,7 @@
         <v>40816</v>
       </c>
       <c r="B48" t="n">
-        <v>13656365366.55128</v>
+        <v>13690306978.57779</v>
       </c>
       <c r="C48" t="n">
         <v>22686510580.62931</v>
@@ -1262,7 +1262,7 @@
         <v>12327594103.42263</v>
       </c>
       <c r="E48" t="n">
-        <v>33941612.02650682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1270,7 +1270,7 @@
         <v>40908</v>
       </c>
       <c r="B49" t="n">
-        <v>9695488873.874493</v>
+        <v>9722310932.389084</v>
       </c>
       <c r="C49" t="n">
         <v>18343465426.37328</v>
@@ -1279,7 +1279,7 @@
         <v>8931082183.575943</v>
       </c>
       <c r="E49" t="n">
-        <v>26822058.51459159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1287,7 +1287,7 @@
         <v>40999</v>
       </c>
       <c r="B50" t="n">
-        <v>12284103630.72695</v>
+        <v>12308177185.85447</v>
       </c>
       <c r="C50" t="n">
         <v>18335453884.44221</v>
@@ -1296,7 +1296,7 @@
         <v>10992965772.79572</v>
       </c>
       <c r="E50" t="n">
-        <v>24073555.1275232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>41090</v>
       </c>
       <c r="B51" t="n">
-        <v>9477437868.190073</v>
+        <v>9499110802.388672</v>
       </c>
       <c r="C51" t="n">
         <v>16504050285.10288</v>
@@ -1313,7 +1313,7 @@
         <v>8347576012.619421</v>
       </c>
       <c r="E51" t="n">
-        <v>21672934.19859802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>41182</v>
       </c>
       <c r="B52" t="n">
-        <v>9433130045.629864</v>
+        <v>9453223996.52952</v>
       </c>
       <c r="C52" t="n">
         <v>14178020264.90299</v>
@@ -1330,7 +1330,7 @@
         <v>8251288158.01943</v>
       </c>
       <c r="E52" t="n">
-        <v>20093950.89965618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1338,7 +1338,7 @@
         <v>41274</v>
       </c>
       <c r="B53" t="n">
-        <v>12407185434.92225</v>
+        <v>12422250717.01863</v>
       </c>
       <c r="C53" t="n">
         <v>17307457871.37522</v>
@@ -1347,7 +1347,7 @@
         <v>9702641043.843449</v>
       </c>
       <c r="E53" t="n">
-        <v>15065282.09638377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1355,7 +1355,7 @@
         <v>41364</v>
       </c>
       <c r="B54" t="n">
-        <v>14796172078.587</v>
+        <v>14809562787.40909</v>
       </c>
       <c r="C54" t="n">
         <v>22798215886.55579</v>
@@ -1364,7 +1364,7 @@
         <v>12715036254.43917</v>
       </c>
       <c r="E54" t="n">
-        <v>13390708.82208976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1372,7 +1372,7 @@
         <v>41455</v>
       </c>
       <c r="B55" t="n">
-        <v>12548506753.12885</v>
+        <v>12567105311.16696</v>
       </c>
       <c r="C55" t="n">
         <v>18863281477.42166</v>
@@ -1381,7 +1381,7 @@
         <v>12171236951.13579</v>
       </c>
       <c r="E55" t="n">
-        <v>18598558.0381115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1389,7 +1389,7 @@
         <v>41547</v>
       </c>
       <c r="B56" t="n">
-        <v>10404438449.55093</v>
+        <v>10421831952.83954</v>
       </c>
       <c r="C56" t="n">
         <v>17033517726.78209</v>
@@ -1398,7 +1398,7 @@
         <v>11271684122.71861</v>
       </c>
       <c r="E56" t="n">
-        <v>17393503.28861043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1406,7 +1406,7 @@
         <v>41639</v>
       </c>
       <c r="B57" t="n">
-        <v>10738084117.08412</v>
+        <v>10755934077.13815</v>
       </c>
       <c r="C57" t="n">
         <v>17552596539.80655</v>
@@ -1415,7 +1415,7 @@
         <v>14893815184.34135</v>
       </c>
       <c r="E57" t="n">
-        <v>17849960.05403445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1423,7 +1423,7 @@
         <v>41729</v>
       </c>
       <c r="B58" t="n">
-        <v>12009332135.89985</v>
+        <v>12020942662.82003</v>
       </c>
       <c r="C58" t="n">
         <v>17300662885.70735</v>
@@ -1432,7 +1432,7 @@
         <v>20262703382.55463</v>
       </c>
       <c r="E58" t="n">
-        <v>11610526.92017902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1440,7 +1440,7 @@
         <v>41820</v>
       </c>
       <c r="B59" t="n">
-        <v>10637717044.44623</v>
+        <v>10647939758.27499</v>
       </c>
       <c r="C59" t="n">
         <v>15169385556.78095</v>
@@ -1449,7 +1449,7 @@
         <v>16235454072.05125</v>
       </c>
       <c r="E59" t="n">
-        <v>10222713.82876511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1457,7 +1457,7 @@
         <v>41912</v>
       </c>
       <c r="B60" t="n">
-        <v>13744190723.94384</v>
+        <v>13755458597.63137</v>
       </c>
       <c r="C60" t="n">
         <v>17524647149.91104</v>
@@ -1466,7 +1466,7 @@
         <v>16556083859.64707</v>
       </c>
       <c r="E60" t="n">
-        <v>11267873.68753242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1474,7 +1474,7 @@
         <v>42004</v>
       </c>
       <c r="B61" t="n">
-        <v>13183416002.22228</v>
+        <v>13192343231.08722</v>
       </c>
       <c r="C61" t="n">
         <v>24748535026.82631</v>
@@ -1483,7 +1483,7 @@
         <v>16721673849.78823</v>
       </c>
       <c r="E61" t="n">
-        <v>8927228.864938797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1491,7 +1491,7 @@
         <v>42094</v>
       </c>
       <c r="B62" t="n">
-        <v>13650077509.96098</v>
+        <v>13664461187.47638</v>
       </c>
       <c r="C62" t="n">
         <v>23116779049.58954</v>
@@ -1500,7 +1500,7 @@
         <v>17012224006.51094</v>
       </c>
       <c r="E62" t="n">
-        <v>14383677.51539412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1508,7 +1508,7 @@
         <v>42185</v>
       </c>
       <c r="B63" t="n">
-        <v>31319142421.25069</v>
+        <v>31334815970.89911</v>
       </c>
       <c r="C63" t="n">
         <v>45844538618.2944</v>
@@ -1517,7 +1517,7 @@
         <v>32150659404.76342</v>
       </c>
       <c r="E63" t="n">
-        <v>15673549.64841588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1525,7 +1525,7 @@
         <v>42277</v>
       </c>
       <c r="B64" t="n">
-        <v>18554981236.89507</v>
+        <v>18561180959.21187</v>
       </c>
       <c r="C64" t="n">
         <v>27011807374.91724</v>
@@ -1534,7 +1534,7 @@
         <v>19164308821.39846</v>
       </c>
       <c r="E64" t="n">
-        <v>6199722.316804189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1542,7 +1542,7 @@
         <v>42369</v>
       </c>
       <c r="B65" t="n">
-        <v>12415723672.93246</v>
+        <v>12419283422.88274</v>
       </c>
       <c r="C65" t="n">
         <v>17964690598.42262</v>
@@ -1551,7 +1551,7 @@
         <v>14961501099.6912</v>
       </c>
       <c r="E65" t="n">
-        <v>3559749.950283838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1559,7 +1559,7 @@
         <v>42460</v>
       </c>
       <c r="B66" t="n">
-        <v>12976888486.78914</v>
+        <v>12982651516.9587</v>
       </c>
       <c r="C66" t="n">
         <v>17067834849.1905</v>
@@ -1568,7 +1568,7 @@
         <v>14269292885.91736</v>
       </c>
       <c r="E66" t="n">
-        <v>5763030.169558767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1576,7 +1576,7 @@
         <v>42551</v>
       </c>
       <c r="B67" t="n">
-        <v>12803364637.32663</v>
+        <v>12806731354.00455</v>
       </c>
       <c r="C67" t="n">
         <v>15418940863.31394</v>
@@ -1585,7 +1585,7 @@
         <v>13549170739.83036</v>
       </c>
       <c r="E67" t="n">
-        <v>3366716.677927079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1593,7 +1593,7 @@
         <v>42643</v>
       </c>
       <c r="B68" t="n">
-        <v>14657202753.05802</v>
+        <v>14662651103.50791</v>
       </c>
       <c r="C68" t="n">
         <v>18388725056.99978</v>
@@ -1602,7 +1602,7 @@
         <v>15607123197.82196</v>
       </c>
       <c r="E68" t="n">
-        <v>5448350.449881176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1610,7 +1610,7 @@
         <v>42735</v>
       </c>
       <c r="B69" t="n">
-        <v>13846300411.84756</v>
+        <v>13855189349.33594</v>
       </c>
       <c r="C69" t="n">
         <v>17616009742.73925</v>
@@ -1619,7 +1619,7 @@
         <v>15852236056.73038</v>
       </c>
       <c r="E69" t="n">
-        <v>8888937.48837593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1627,7 +1627,7 @@
         <v>42825</v>
       </c>
       <c r="B70" t="n">
-        <v>15644820943.36927</v>
+        <v>15651662126.08523</v>
       </c>
       <c r="C70" t="n">
         <v>19411458705.15063</v>
@@ -1636,7 +1636,7 @@
         <v>18701387757.66459</v>
       </c>
       <c r="E70" t="n">
-        <v>6841182.715958872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1644,7 +1644,7 @@
         <v>42916</v>
       </c>
       <c r="B71" t="n">
-        <v>17119985166.22463</v>
+        <v>17126303798.29108</v>
       </c>
       <c r="C71" t="n">
         <v>19682105822.01796</v>
@@ -1653,7 +1653,7 @@
         <v>22615063680.82304</v>
       </c>
       <c r="E71" t="n">
-        <v>6318632.066458492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1661,7 +1661,7 @@
         <v>43008</v>
       </c>
       <c r="B72" t="n">
-        <v>19996197030.68798</v>
+        <v>20004714335.07557</v>
       </c>
       <c r="C72" t="n">
         <v>25686206296.54945</v>
@@ -1670,7 +1670,7 @@
         <v>24986961750.46649</v>
       </c>
       <c r="E72" t="n">
-        <v>8517304.387588024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1678,7 +1678,7 @@
         <v>43100</v>
       </c>
       <c r="B73" t="n">
-        <v>20584165001.79016</v>
+        <v>20590321496.88059</v>
       </c>
       <c r="C73" t="n">
         <v>27583271787.79299</v>
@@ -1687,7 +1687,7 @@
         <v>31753517170.71445</v>
       </c>
       <c r="E73" t="n">
-        <v>6156495.090429587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1695,7 +1695,7 @@
         <v>43190</v>
       </c>
       <c r="B74" t="n">
-        <v>26724542405.64981</v>
+        <v>26731013437.4239</v>
       </c>
       <c r="C74" t="n">
         <v>40864020465.94712</v>
@@ -1704,7 +1704,7 @@
         <v>38654937364.26819</v>
       </c>
       <c r="E74" t="n">
-        <v>6471031.774089876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1712,7 +1712,7 @@
         <v>43281</v>
       </c>
       <c r="B75" t="n">
-        <v>20006554470.07525</v>
+        <v>20009549982.17101</v>
       </c>
       <c r="C75" t="n">
         <v>28587541654.90051</v>
@@ -1721,7 +1721,7 @@
         <v>33226848373.28045</v>
       </c>
       <c r="E75" t="n">
-        <v>2995512.095761108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1729,7 +1729,7 @@
         <v>43373</v>
       </c>
       <c r="B76" t="n">
-        <v>17278586583.87358</v>
+        <v>17280742177.49689</v>
       </c>
       <c r="C76" t="n">
         <v>23088354900.47995</v>
@@ -1738,7 +1738,7 @@
         <v>27451522696.24617</v>
       </c>
       <c r="E76" t="n">
-        <v>1789422711.208553</v>
+        <v>1787267117.585239</v>
       </c>
     </row>
     <row r="77">
@@ -1746,7 +1746,7 @@
         <v>43465</v>
       </c>
       <c r="B77" t="n">
-        <v>15153841358.33821</v>
+        <v>15156352353.8401</v>
       </c>
       <c r="C77" t="n">
         <v>20166460634.38003</v>
@@ -1755,7 +1755,7 @@
         <v>23056581314.13036</v>
       </c>
       <c r="E77" t="n">
-        <v>990772605.2267542</v>
+        <v>988261609.7248613</v>
       </c>
     </row>
     <row r="78">
@@ -1763,7 +1763,7 @@
         <v>43555</v>
       </c>
       <c r="B78" t="n">
-        <v>18165221638.58574</v>
+        <v>18168692963.77359</v>
       </c>
       <c r="C78" t="n">
         <v>24055739251.63007</v>
@@ -1772,7 +1772,7 @@
         <v>25080107306.78552</v>
       </c>
       <c r="E78" t="n">
-        <v>1758669352.531962</v>
+        <v>1755198027.344112</v>
       </c>
     </row>
     <row r="79">
@@ -1780,7 +1780,7 @@
         <v>43646</v>
       </c>
       <c r="B79" t="n">
-        <v>19274614796.06498</v>
+        <v>19278494656.86746</v>
       </c>
       <c r="C79" t="n">
         <v>23894362279.84828</v>
@@ -1789,7 +1789,7 @@
         <v>25142119839.84965</v>
       </c>
       <c r="E79" t="n">
-        <v>2195853468.352394</v>
+        <v>2191973607.54991</v>
       </c>
     </row>
     <row r="80">
@@ -1797,7 +1797,7 @@
         <v>43738</v>
       </c>
       <c r="B80" t="n">
-        <v>18761803969.15498</v>
+        <v>18765490926.44484</v>
       </c>
       <c r="C80" t="n">
         <v>17774010894.14149</v>
@@ -1806,7 +1806,7 @@
         <v>19813360976.58863</v>
       </c>
       <c r="E80" t="n">
-        <v>2043223202.130191</v>
+        <v>2039536244.840336</v>
       </c>
     </row>
     <row r="81">
@@ -1814,7 +1814,7 @@
         <v>43830</v>
       </c>
       <c r="B81" t="n">
-        <v>17714106853.82462</v>
+        <v>17718142656.51188</v>
       </c>
       <c r="C81" t="n">
         <v>16707406516.89067</v>
@@ -1823,7 +1823,7 @@
         <v>21328416441.22538</v>
       </c>
       <c r="E81" t="n">
-        <v>4777912203.334775</v>
+        <v>4773876400.647514</v>
       </c>
     </row>
     <row r="82">
@@ -1831,7 +1831,7 @@
         <v>43921</v>
       </c>
       <c r="B82" t="n">
-        <v>24089706464.72657</v>
+        <v>24095589778.38536</v>
       </c>
       <c r="C82" t="n">
         <v>25717227906.49755</v>
@@ -1840,7 +1840,7 @@
         <v>35834379605.26572</v>
       </c>
       <c r="E82" t="n">
-        <v>10366129112.92157</v>
+        <v>10360245799.26278</v>
       </c>
     </row>
     <row r="83">
@@ -1848,7 +1848,7 @@
         <v>44012</v>
       </c>
       <c r="B83" t="n">
-        <v>23692270498.66431</v>
+        <v>23707821192.56106</v>
       </c>
       <c r="C83" t="n">
         <v>19585178000.73207</v>
@@ -1857,7 +1857,7 @@
         <v>35713209000.77184</v>
       </c>
       <c r="E83" t="n">
-        <v>11894283668.57914</v>
+        <v>11878732974.68239</v>
       </c>
     </row>
     <row r="84">
@@ -1865,7 +1865,7 @@
         <v>44104</v>
       </c>
       <c r="B84" t="n">
-        <v>23501252028.17215</v>
+        <v>23508361450.3492</v>
       </c>
       <c r="C84" t="n">
         <v>23559356193.91189</v>
@@ -1874,7 +1874,7 @@
         <v>47494432164.23105</v>
       </c>
       <c r="E84" t="n">
-        <v>19297345513.19968</v>
+        <v>19290236091.02262</v>
       </c>
     </row>
     <row r="85">
@@ -1882,7 +1882,7 @@
         <v>44196</v>
       </c>
       <c r="B85" t="n">
-        <v>24049882940.35389</v>
+        <v>24055911030.74511</v>
       </c>
       <c r="C85" t="n">
         <v>24435721817.19186</v>
@@ -1891,7 +1891,7 @@
         <v>46249545439.54853</v>
       </c>
       <c r="E85" t="n">
-        <v>23262316362.94222</v>
+        <v>23256288272.551</v>
       </c>
     </row>
     <row r="86">
@@ -1899,7 +1899,7 @@
         <v>44286</v>
       </c>
       <c r="B86" t="n">
-        <v>36804238760.95122</v>
+        <v>36812174928.46468</v>
       </c>
       <c r="C86" t="n">
         <v>38466128982.74511</v>
@@ -1908,7 +1908,7 @@
         <v>82821458832.30307</v>
       </c>
       <c r="E86" t="n">
-        <v>32619146054.00196</v>
+        <v>32611209886.48849</v>
       </c>
     </row>
     <row r="87">
@@ -1916,7 +1916,7 @@
         <v>44377</v>
       </c>
       <c r="B87" t="n">
-        <v>28702066918.95851</v>
+        <v>28705378271.30558</v>
       </c>
       <c r="C87" t="n">
         <v>26444804444.25496</v>
@@ -1925,7 +1925,7 @@
         <v>51408029620.82176</v>
       </c>
       <c r="E87" t="n">
-        <v>22947424781.29955</v>
+        <v>22944113428.95249</v>
       </c>
     </row>
     <row r="88">
@@ -1933,7 +1933,7 @@
         <v>44469</v>
       </c>
       <c r="B88" t="n">
-        <v>32206345491.45748</v>
+        <v>32208873120.84686</v>
       </c>
       <c r="C88" t="n">
         <v>26945979668.36883</v>
@@ -1942,7 +1942,7 @@
         <v>58284629118.50986</v>
       </c>
       <c r="E88" t="n">
-        <v>24242275408.08674</v>
+        <v>24239747778.69735</v>
       </c>
     </row>
     <row r="89">
@@ -1950,7 +1950,7 @@
         <v>44561</v>
       </c>
       <c r="B89" t="n">
-        <v>25179762972.35662</v>
+        <v>25182286972.01529</v>
       </c>
       <c r="C89" t="n">
         <v>19228480986.51228</v>
@@ -1959,7 +1959,7 @@
         <v>38700599806.4689</v>
       </c>
       <c r="E89" t="n">
-        <v>19129186517.722</v>
+        <v>19126662518.06333</v>
       </c>
     </row>
     <row r="90">
@@ -1967,7 +1967,7 @@
         <v>44651</v>
       </c>
       <c r="B90" t="n">
-        <v>29655581978.29345</v>
+        <v>29659956043.90048</v>
       </c>
       <c r="C90" t="n">
         <v>24621065512.08489</v>
@@ -1976,7 +1976,7 @@
         <v>40475608483.93093</v>
       </c>
       <c r="E90" t="n">
-        <v>22325529928.30624</v>
+        <v>22321155862.69921</v>
       </c>
     </row>
     <row r="91">
@@ -1984,7 +1984,7 @@
         <v>44742</v>
       </c>
       <c r="B91" t="n">
-        <v>22431021448.50428</v>
+        <v>22435678174.68167</v>
       </c>
       <c r="C91" t="n">
         <v>22068685726.24144</v>
@@ -1993,7 +1993,7 @@
         <v>34797803760.49208</v>
       </c>
       <c r="E91" t="n">
-        <v>24489863649.98037</v>
+        <v>24485206923.80297</v>
       </c>
     </row>
     <row r="92">
@@ -2001,7 +2001,7 @@
         <v>44834</v>
       </c>
       <c r="B92" t="n">
-        <v>17820057377.61505</v>
+        <v>17823036551.16434</v>
       </c>
       <c r="C92" t="n">
         <v>15678846123.49845</v>
@@ -2010,7 +2010,7 @@
         <v>26977691720.97164</v>
       </c>
       <c r="E92" t="n">
-        <v>16252050598.41841</v>
+        <v>16249071424.86912</v>
       </c>
     </row>
     <row r="93">
@@ -2018,7 +2018,7 @@
         <v>44926</v>
       </c>
       <c r="B93" t="n">
-        <v>25483115476.2428</v>
+        <v>25484860097.69293</v>
       </c>
       <c r="C93" t="n">
         <v>18528336742.61227</v>
@@ -2027,7 +2027,7 @@
         <v>37450889745.07206</v>
       </c>
       <c r="E93" t="n">
-        <v>22147535460.84576</v>
+        <v>22145790839.39563</v>
       </c>
     </row>
     <row r="94">
@@ -2035,7 +2035,7 @@
         <v>45016</v>
       </c>
       <c r="B94" t="n">
-        <v>22680798666.952</v>
+        <v>22683358607.30368</v>
       </c>
       <c r="C94" t="n">
         <v>19349415912.68385</v>
@@ -2044,7 +2044,7 @@
         <v>38235775936.0154</v>
       </c>
       <c r="E94" t="n">
-        <v>24447159945.30421</v>
+        <v>24444600004.95253</v>
       </c>
     </row>
     <row r="95">
@@ -2052,7 +2052,7 @@
         <v>45107</v>
       </c>
       <c r="B95" t="n">
-        <v>19041688136.67419</v>
+        <v>19043160444.45303</v>
       </c>
       <c r="C95" t="n">
         <v>19946266476.00615</v>
@@ -2061,7 +2061,7 @@
         <v>27332221492.66376</v>
       </c>
       <c r="E95" t="n">
-        <v>16598558446.34808</v>
+        <v>16597086138.56925</v>
       </c>
     </row>
   </sheetData>
